--- a/biology/Zoologie/Gallicolombe_des_Marquises/Gallicolombe_des_Marquises.xlsx
+++ b/biology/Zoologie/Gallicolombe_des_Marquises/Gallicolombe_des_Marquises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopecoenas rubescens
 La Gallicolombe des Marquises (Alopecoenas rubescens, aussi Pampusana rubescens ou Gallicolumba rubescens), auparavant connue sous le nom  de Gallicolumba rubescens, est une espèce d'oiseaux de la famille des Columbidés. Elle est endémique de Polynésie française.
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son écosystème est constitué de zones arbustives subtropicales ou tropicales sèches, et subtropicales ou tropicales humides.
 </t>
@@ -543,9 +557,11 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce fut classée comme en danger par l'UICN[1]. Mais de nouvelles recherches montrent qu'elle est plus fréquente que prévu, ce qui a conduit son reclassement en espèce vulnérable en 2008.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fut classée comme en danger par l'UICN. Mais de nouvelles recherches montrent qu'elle est plus fréquente que prévu, ce qui a conduit son reclassement en espèce vulnérable en 2008.
 </t>
         </is>
       </c>
